--- a/Python/Web Scrape/PythonInputs.xlsx
+++ b/Python/Web Scrape/PythonInputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sollusus-my.sharepoint.com/personal/tom_dabbs_sollus_us/Documents/Personal/Documents/GitHub/Dabbs_Public/Python/Web Scrape/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:40009_{D787791B-9A9B-4050-ACCC-1299C94BA491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE0FEB27-5348-4BF9-89D3-DACBB84F3429}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:40009_{D787791B-9A9B-4050-ACCC-1299C94BA491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D7B5E7E-9162-4AD0-B395-4ED8EC74D005}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2585" uniqueCount="1037">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2571" uniqueCount="1037">
   <si>
     <t>Ticker</t>
   </si>
@@ -13772,7 +13772,7 @@
   <dimension ref="A1:A1030"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A9" sqref="A9:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13818,74 +13818,46 @@
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="A9" s="5"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="A10" s="5"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="A11" s="5"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="A12" s="5"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="A13" s="5"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>537</v>
-      </c>
+      <c r="A14" s="5"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>538</v>
-      </c>
+      <c r="A15" s="5"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>539</v>
-      </c>
+      <c r="A16" s="5"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>540</v>
-      </c>
+      <c r="A17" s="5"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>541</v>
-      </c>
+      <c r="A18" s="5"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="A19" s="5"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="A20" s="5"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A21" s="5"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="A22" s="5"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
